--- a/SATIM/DataSpreadsheets/CO2Tax.xlsx
+++ b/SATIM/DataSpreadsheets/CO2Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6752B24-6C37-4B8D-9E3C-4819384ABE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AABC57C-78A6-4689-A5BA-026071D15B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="-16620" windowWidth="27615" windowHeight="14340" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
+    <workbookView xWindow="5190" yWindow="-17685" windowWidth="25785" windowHeight="15345" xr2:uid="{7C70B42E-9201-48A9-B8F0-1466C79FDCED}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2TaxInputs" sheetId="5" r:id="rId1"/>
@@ -144,6 +144,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={98ADEDF8-CA18-4AAD-9D74-11EB9541DB1F}</author>
+  </authors>
+  <commentList>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{98ADEDF8-CA18-4AAD-9D74-11EB9541DB1F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed to AR5 - August 2021</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -167,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="166">
   <si>
     <t>REGION1</t>
   </si>
@@ -656,6 +674,15 @@
   </si>
   <si>
     <t>2015 Rands/kton</t>
+  </si>
+  <si>
+    <t>CO2SPCEM</t>
+  </si>
+  <si>
+    <t>CO2SPIFC</t>
+  </si>
+  <si>
+    <t>CO2SPIFM</t>
   </si>
 </sst>
 </file>
@@ -665,7 +692,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -690,8 +717,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +741,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -728,21 +773,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="2" xr:uid="{1030A58F-AC87-4AC7-BEDA-0B28F361A273}"/>
@@ -1521,6 +1569,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Bruno Merven" id="{6F6288E2-7333-4331-B3D9-555C88E2A2BA}" userId="Bruno Merven" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1818,6 +1872,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J9" dT="2021-08-25T15:53:10.50" personId="{6F6288E2-7333-4331-B3D9-555C88E2A2BA}" id="{98ADEDF8-CA18-4AAD-9D74-11EB9541DB1F}">
+    <text>Changed to AR5 - August 2021</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDD891E-56E0-4A8D-A79A-1FD74EC26C1E}">
   <sheetPr>
@@ -1844,7 +1906,7 @@
         <v>2020</v>
       </c>
       <c r="G1">
-        <f t="shared" ref="G1:AA1" si="0">F1+1</f>
+        <f t="shared" ref="G1:Z1" si="0">F1+1</f>
         <v>2021</v>
       </c>
       <c r="H1">
@@ -2166,7 +2228,7 @@
         <v>2020</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:AA7" si="3">F7+1</f>
+        <f t="shared" ref="G7:Z7" si="3">F7+1</f>
         <v>2021</v>
       </c>
       <c r="H7">
@@ -3834,14 +3896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AC606-03E6-4E53-AE7B-7349668CD223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AC606-03E6-4E53-AE7B-7349668CD223}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AP25"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4225,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
@@ -4283,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
@@ -4312,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
@@ -4370,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
@@ -4399,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
@@ -4428,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -4486,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -4515,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -4573,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -4602,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>310</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -4660,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -4692,8 +4754,96 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
